--- a/level-1/codeforces/phase-1-2/codeforces-phase-1-2.xlsx
+++ b/level-1/codeforces/phase-1-2/codeforces-phase-1-2.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3A6F3-5631-49A8-90DA-1804CFA7D2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56450F71-1674-4097-BD4C-AFE8B3BF575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="codeforces level 1.2" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces 1.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -67,9 +78,6 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/124/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/127/A</t>
   </si>
   <si>
@@ -115,21 +123,6 @@
     <t>https://codeforces.com/problemset/problem/194/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/460/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/84/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/195/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/1/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/476/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/313/A</t>
   </si>
   <si>
@@ -301,12 +294,6 @@
     <t>https://codeforces.com/problemset/problem/404/A</t>
   </si>
   <si>
-    <t>https://codeforces.com/problemset/problem/757/A</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/problemset/problem/363/A</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/408/A</t>
   </si>
   <si>
@@ -425,6 +412,39 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/1013/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/964/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/931/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/912/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/50/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/9/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/557/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/791/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/119/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/116/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/92/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/80/A</t>
   </si>
 </sst>
 </file>
@@ -604,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,20 +640,17 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -660,30 +677,12 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -959,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -977,125 +976,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6">
-        <f>SUM(B4:B819)</f>
-        <v>10</v>
+        <f>SUM(B4:B822)</f>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
-        <f>SUM(C4:C819)</f>
-        <v>16</v>
+        <f>SUM(C4:C822)</f>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(D4:D819)</f>
-        <v>20</v>
+        <f>SUM(D4:D822)</f>
+        <v>25</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(E4:E819)</f>
-        <v>34</v>
+        <f>SUM(E4:E822)</f>
+        <v>32</v>
       </c>
       <c r="F3" s="6">
-        <f>SUM(F4:F819)</f>
+        <f>SUM(F4:F822)</f>
         <v>40</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G198)</f>
+        <f>AVERAGE(G9:G201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6" t="e">
-        <f>AVERAGE(H4:H198)</f>
+        <f>AVERAGE(H9:H201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="6" t="e">
-        <f>AVERAGE(I4:I198)</f>
+        <f>AVERAGE(I9:I201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="6" t="e">
-        <f>AVERAGE(J4:J198)</f>
+        <f>AVERAGE(J9:J201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="6" t="e">
-        <f>AVERAGE(K4:K198)</f>
+        <f>AVERAGE(K9:K201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L4:L198)</f>
+        <f>AVERAGE(L9:L201)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>COUNTA(M4:M819)</f>
-        <v>120</v>
+        <f>COUNTA(M9:M822)</f>
+        <v>118</v>
       </c>
       <c r="N3" s="6">
-        <f>COUNTA(N4:N819)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(N9:N822)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1104,23 +1103,23 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="8">
         <f>SUM(G4:K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>125</v>
+        <v>468</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1129,31 +1128,31 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="8">
         <f>SUM(G5:K5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>350</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>456</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1164,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1189,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>262</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1214,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1239,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -1264,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -1289,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -1304,31 +1303,31 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="8">
         <f>SUM(G12:K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>272</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+        <v>186</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1339,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>186</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1364,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7">
@@ -1389,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7">
@@ -1414,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
@@ -1439,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7">
@@ -1454,31 +1453,31 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="8">
         <f>SUM(G18:K18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>362</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+        <v>441</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1489,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>441</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1514,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7">
@@ -1529,31 +1528,31 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8">
         <f>SUM(G21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>45</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+        <v>337</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1564,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>337</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1589,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -1614,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>274</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+        <v>292</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1639,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
@@ -1664,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7">
@@ -1689,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7">
@@ -1714,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7">
@@ -1739,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="N29" s="11"/>
     </row>
@@ -1747,63 +1746,63 @@
       <c r="A30" s="7">
         <v>400</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="8">
         <f>SUM(G30:K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>151</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="8">
         <f>SUM(G31:K31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>169</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1814,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>326</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -1839,34 +1838,34 @@
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>367</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="8">
         <f>SUM(G34:K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N34" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="N34" s="12"/>
     </row>
     <row r="35" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -1879,17 +1878,17 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="8">
         <f>SUM(G35:K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N35" s="11"/>
     </row>
@@ -1897,26 +1896,26 @@
       <c r="A36" s="7">
         <v>412</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8">
-        <f>SUM(G36:K36)</f>
+        <f t="shared" ref="L36:L72" si="0">SUM(G36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N36" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="N36" s="12"/>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -1929,17 +1928,17 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="8">
-        <f>SUM(G37:K37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -1947,51 +1946,51 @@
       <c r="A38" s="7">
         <v>26</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="8">
-        <f>SUM(G38:K38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>93</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="8">
-        <f>SUM(G39:K39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -2010,11 +2009,11 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8">
-        <f>SUM(G40:K40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N40" s="11"/>
     </row>
@@ -2022,126 +2021,126 @@
       <c r="A41" s="7">
         <v>457</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8">
-        <f>SUM(G41:K41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>136</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8">
-        <f>SUM(G42:K42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="N42" s="12"/>
     </row>
     <row r="43" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>194</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8">
-        <f>SUM(G43:K43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>320</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="8">
-        <f>SUM(G44:K44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N44" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>190</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="8">
-        <f>SUM(G45:K45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N45" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="N45" s="12"/>
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
@@ -2154,17 +2153,17 @@
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="8">
-        <f>SUM(G46:K46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2179,17 +2178,17 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="8">
-        <f>SUM(G47:K47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -2197,62 +2196,62 @@
       <c r="A48" s="7">
         <v>319</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8">
-        <f>SUM(G48:K48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N48" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>102</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="8">
-        <f>SUM(G49:K49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N49" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2264,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>309</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12">
-        <v>1</v>
-      </c>
-      <c r="F51" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -2289,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N51" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>385</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -2314,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N52" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="N52" s="12"/>
     </row>
     <row r="53" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>397</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -2339,88 +2338,88 @@
         <v>0</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="N53" s="13"/>
+        <v>136</v>
+      </c>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>189</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="8">
         <f>SUM(G54:K54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N54" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>219</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+        <v>265</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="8">
-        <f>SUM(G55:K55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N55" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>221</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12">
-        <v>1</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="8">
-        <f>SUM(G56:K56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N56" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2429,48 +2428,48 @@
         <v>1</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="8">
-        <f>SUM(G57:K57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N57" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>242</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12">
-        <v>1</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+        <v>397</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="8">
-        <f>SUM(G58:K58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N58" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2485,142 +2484,142 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="8">
-        <f>SUM(G59:K59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N59" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>380</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12">
-        <v>1</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="A60" s="7">
+        <v>219</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="8">
-        <f>SUM(G60:K60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N60" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>130</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12">
-        <v>1</v>
-      </c>
-      <c r="F61" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="8">
-        <f>SUM(G61:K61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N61" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>294</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12">
-        <v>1</v>
-      </c>
-      <c r="F62" s="12"/>
+        <v>227</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="8">
-        <f>SUM(G62:K62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N62" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>310</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="8">
-        <f>SUM(G63:K63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N63" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>438</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12">
-        <v>1</v>
-      </c>
-      <c r="F64" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="8">
-        <f>SUM(G64:K64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N64" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="N64" s="11"/>
     </row>
     <row r="65" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2629,23 +2628,23 @@
         <v>1</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="8">
-        <f>SUM(G65:K65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N65" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2654,23 +2653,23 @@
         <v>1</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="8">
-        <f>SUM(G66:K66)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N66" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2685,17 +2684,17 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="8">
-        <f>SUM(G67:K67)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N67" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2704,73 +2703,73 @@
         <v>1</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="8">
-        <f>SUM(G68:K68)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N68" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>96</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
+        <v>438</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7">
+        <v>1</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="8">
-        <f>SUM(G69:K69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>98</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12">
-        <v>1</v>
-      </c>
-      <c r="F70" s="12"/>
+        <v>429</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8">
-        <f>SUM(G70:K70)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2779,73 +2778,73 @@
         <v>1</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
       <c r="L71" s="8">
-        <f>SUM(G71:K71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>478</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12">
-        <v>1</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="8">
-        <f>SUM(G72:K72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N72" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>480</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12">
-        <v>1</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
       <c r="L73" s="8">
         <f>SUM(G73:K73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N73" s="13"/>
+        <v>81</v>
+      </c>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>487</v>
+        <v>96</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2854,23 +2853,23 @@
         <v>1</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
       <c r="L74" s="8">
         <f>SUM(G74:K74)</f>
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N74" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>497</v>
+        <v>98</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2879,31 +2878,31 @@
         <v>1</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="8">
         <f>SUM(G75:K75)</f>
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>499</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12">
-        <v>1</v>
-      </c>
-      <c r="F76" s="12"/>
+        <v>470</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -2914,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>234</v>
+        <v>478</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2939,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N77" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>378</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12"/>
+        <v>480</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -2964,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N78" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="N78" s="12"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2989,38 +2988,38 @@
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>157</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12">
-        <v>1</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+        <v>497</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="8">
         <f>SUM(G80:K80)</f>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N80" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>237</v>
+        <v>499</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3029,31 +3028,31 @@
         <v>1</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="8">
         <f>SUM(G81:K81)</f>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N81" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12">
-        <v>391</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12">
-        <v>1</v>
-      </c>
-      <c r="F82" s="12"/>
+      <c r="A82" s="7">
+        <v>234</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -3064,597 +3063,599 @@
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N82" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>211</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12">
-        <v>1</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+        <v>378</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="8">
         <f>SUM(G83:K83)</f>
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>135</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="8">
+        <f>SUM(G84:K84)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>157</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="8">
+        <f>SUM(G85:K85)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N85" s="12"/>
+    </row>
+    <row r="86" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>237</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="8">
+        <f>SUM(G86:K86)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
         <v>483</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12">
-        <v>1</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="21">
-        <f>SUM(G84:K84)</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="10" t="s">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="8">
+        <f>SUM(G87:K87)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>464</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="8">
+        <f>SUM(G88:K88)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>467</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="8">
+        <f>SUM(G89:K89)</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>452</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="8">
+        <f>SUM(G90:K90)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>424</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="8">
+        <f>SUM(G91:K91)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>420</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="8">
+        <f>SUM(G92:K92)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>414</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="8">
+        <f>SUM(G93:K93)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>404</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="8">
+        <f>SUM(G94:K94)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>97</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="8">
+        <f>SUM(G95:K95)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12">
-        <v>464</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12">
-        <v>1</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="21">
-        <f>SUM(G85:K85)</f>
-        <v>0</v>
-      </c>
-      <c r="M85" s="10" t="s">
+    <row r="96" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>34</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="8">
+        <f>SUM(G96:K96)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
-        <v>467</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12">
-        <v>1</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="21">
-        <f>SUM(G86:K86)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="10" t="s">
+    <row r="97" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>32</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="8">
+        <f>SUM(G97:K97)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
-        <v>452</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12">
-        <v>1</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="21">
-        <f>SUM(G87:K87)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="10" t="s">
+    <row r="98" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>22</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="8">
+        <f>SUM(G98:K98)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
-        <v>424</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12">
-        <v>1</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="21">
-        <f>SUM(G88:K88)</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="10" t="s">
+    <row r="99" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>99</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7">
+        <v>1</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="8">
+        <f>SUM(G99:K99)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
-        <v>420</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12">
-        <v>1</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="21">
-        <f>SUM(G89:K89)</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="10" t="s">
+    <row r="100" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>481</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="8">
+        <f>SUM(G100:K100)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
-        <v>414</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12">
-        <v>1</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="21">
-        <f>SUM(G90:K90)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="10" t="s">
+    <row r="101" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>486</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="8">
+        <f>SUM(G101:K101)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
-        <v>404</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="21">
-        <f>SUM(G91:K91)</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="10" t="s">
+    <row r="102" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>490</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="8">
+        <f>SUM(G102:K102)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
-        <v>97</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="21">
-        <f>SUM(G92:K92)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="10" t="s">
+    <row r="103" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>494</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="8">
+        <f t="shared" ref="L103:L134" si="1">SUM(G103:K103)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="12">
-        <v>34</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12">
-        <v>1</v>
-      </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="21">
-        <f>SUM(G93:K93)</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="10" t="s">
+    <row r="104" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>496</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
-        <v>32</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12">
-        <v>1</v>
-      </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="21">
-        <f>SUM(G94:K94)</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="10" t="s">
+    <row r="105" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>498</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
-        <v>22</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12">
-        <v>1</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="21">
-        <f>SUM(G95:K95)</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="10" t="s">
+    <row r="106" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>501</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
-        <v>99</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12">
-        <v>1</v>
-      </c>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="21">
-        <f>SUM(G96:K96)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
-        <v>481</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12">
-        <v>1</v>
-      </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="21">
-        <f>SUM(G97:K97)</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
-        <v>486</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12">
-        <v>1</v>
-      </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="21">
-        <f>SUM(G98:K98)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12">
-        <v>490</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12">
-        <v>1</v>
-      </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="21">
-        <f>SUM(G99:K99)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
-        <v>494</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12">
-        <v>1</v>
-      </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="21">
-        <f>SUM(G100:K100)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12">
-        <v>496</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12">
-        <v>1</v>
-      </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="21">
-        <f>SUM(G101:K101)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12">
-        <v>498</v>
-      </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12">
-        <v>1</v>
-      </c>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="21">
-        <f>SUM(G102:K102)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12">
-        <v>501</v>
-      </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12">
-        <v>1</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="21">
-        <f>SUM(G103:K103)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12">
+    <row r="107" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
         <v>403</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12">
-        <v>1</v>
-      </c>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="21">
-        <f>SUM(G104:K104)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12">
-        <v>500</v>
-      </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12">
-        <v>1</v>
-      </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="21">
-        <f>SUM(G105:K105)</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>239</v>
-      </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12">
-        <v>1</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="8">
-        <f>SUM(G106:K106)</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N106" s="13"/>
-    </row>
-    <row r="107" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>240</v>
-      </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7"/>
@@ -3663,23 +3664,22 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="8">
-        <f>SUM(G107:K107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N107" s="13"/>
-    </row>
-    <row r="108" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>111</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12">
+        <v>500</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7">
         <v>1</v>
       </c>
       <c r="G108" s="7"/>
@@ -3688,23 +3688,22 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="8">
-        <f>SUM(G108:K108)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N108" s="13"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="109" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>129</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12">
+        <v>239</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7">
         <v>1</v>
       </c>
       <c r="G109" s="7"/>
@@ -3713,23 +3712,23 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="8">
-        <f>SUM(G109:K109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N109" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="N109" s="12"/>
     </row>
     <row r="110" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>132</v>
-      </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12">
+        <v>240</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7">
         <v>1</v>
       </c>
       <c r="G110" s="7"/>
@@ -3738,148 +3737,148 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="8">
-        <f>SUM(G110:K110)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N110" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="N110" s="12"/>
     </row>
     <row r="111" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
-        <v>150</v>
-      </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12">
-        <v>1</v>
-      </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="8">
-        <f>SUM(G111:K111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N111" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="N111" s="12"/>
     </row>
     <row r="112" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
-        <v>168</v>
-      </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12">
-        <v>1</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="8">
-        <f>SUM(G112:K112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N112" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="N112" s="12"/>
     </row>
     <row r="113" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
-        <v>196</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12">
-        <v>1</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
       <c r="L113" s="8">
-        <f>SUM(G113:K113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N113" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="N113" s="12"/>
     </row>
     <row r="114" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
-        <v>238</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12">
-        <v>1</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="8">
-        <f>SUM(G114:K114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N114" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="N114" s="12"/>
     </row>
     <row r="115" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
-        <v>283</v>
-      </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12">
-        <v>1</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="8">
-        <f>SUM(G115:K115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N115" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="N115" s="12"/>
     </row>
     <row r="116" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
-        <v>303</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12">
+        <v>196</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7">
         <v>1</v>
       </c>
       <c r="G116" s="7"/>
@@ -3888,48 +3887,48 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="8">
-        <f>SUM(G116:K116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N116" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="N116" s="12"/>
     </row>
     <row r="117" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
-        <v>314</v>
-      </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12">
-        <v>1</v>
-      </c>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
+        <v>238</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="8">
-        <f>SUM(G117:K117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N117" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="N117" s="12"/>
     </row>
     <row r="118" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
-        <v>317</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12">
+        <v>283</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7">
         <v>1</v>
       </c>
       <c r="G118" s="7"/>
@@ -3938,17 +3937,17 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="8">
-        <f>SUM(G118:K118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N118" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="N118" s="12"/>
     </row>
     <row r="119" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3963,17 +3962,17 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="8">
-        <f>SUM(G119:K119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N119" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="N119" s="12"/>
     </row>
     <row r="120" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3988,23 +3987,23 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="8">
-        <f>SUM(G120:K120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N120" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="N120" s="12"/>
     </row>
     <row r="121" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
-        <v>344</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12">
+        <v>317</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7">
         <v>1</v>
       </c>
       <c r="G121" s="7"/>
@@ -4013,17 +4012,17 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="8">
-        <f>SUM(G121:K121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="N121" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="N121" s="12"/>
     </row>
     <row r="122" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4032,68 +4031,119 @@
       <c r="F122" s="7">
         <v>1</v>
       </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="8">
-        <f>SUM(G122:K122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N122" s="11"/>
     </row>
     <row r="123" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
+        <v>341</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>344</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N124" s="12"/>
+    </row>
+    <row r="125" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>399</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="1:14" s="9" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
         <v>106</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12">
-        <v>1</v>
-      </c>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="8">
-        <f>SUM(G123:K123)</f>
-        <v>0</v>
-      </c>
-      <c r="M123" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N123" s="13"/>
-    </row>
-    <row r="142" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N126" s="12"/>
     </row>
     <row r="145" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G145" s="7"/>
@@ -4112,19 +4162,19 @@
       <c r="L146" s="8"/>
     </row>
     <row r="147" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="8"/>
     </row>
     <row r="148" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
       <c r="L148" s="8"/>
     </row>
     <row r="149" spans="7:12" x14ac:dyDescent="0.3">
@@ -4136,19 +4186,19 @@
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
       <c r="L150" s="8"/>
     </row>
     <row r="151" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
       <c r="L151" s="8"/>
     </row>
     <row r="152" spans="7:12" x14ac:dyDescent="0.3">
@@ -4160,43 +4210,43 @@
       <c r="L152" s="8"/>
     </row>
     <row r="153" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="8"/>
     </row>
     <row r="154" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
       <c r="L154" s="8"/>
     </row>
     <row r="155" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
       <c r="L155" s="8"/>
     </row>
     <row r="156" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
       <c r="L156" s="8"/>
     </row>
     <row r="157" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
       <c r="L157" s="8"/>
     </row>
     <row r="158" spans="7:12" x14ac:dyDescent="0.3">
@@ -4216,19 +4266,19 @@
       <c r="L159" s="8"/>
     </row>
     <row r="160" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
       <c r="L161" s="8"/>
     </row>
     <row r="162" spans="7:12" x14ac:dyDescent="0.3">
@@ -4240,27 +4290,27 @@
       <c r="L162" s="8"/>
     </row>
     <row r="163" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="8"/>
     </row>
     <row r="164" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
       <c r="L164" s="8"/>
     </row>
     <row r="165" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="8"/>
     </row>
     <row r="166" spans="7:12" x14ac:dyDescent="0.3">
@@ -4280,27 +4330,27 @@
       <c r="L167" s="8"/>
     </row>
     <row r="168" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
       <c r="L169" s="8"/>
     </row>
     <row r="170" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
       <c r="L170" s="8"/>
     </row>
     <row r="171" spans="7:12" x14ac:dyDescent="0.3">
@@ -4320,35 +4370,35 @@
       <c r="L172" s="8"/>
     </row>
     <row r="173" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
       <c r="L173" s="8"/>
     </row>
     <row r="174" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
       <c r="L174" s="8"/>
     </row>
     <row r="175" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
       <c r="L175" s="8"/>
     </row>
     <row r="176" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
       <c r="L176" s="8"/>
     </row>
     <row r="177" spans="7:12" x14ac:dyDescent="0.3">
@@ -4360,180 +4410,204 @@
       <c r="L177" s="8"/>
     </row>
     <row r="178" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
       <c r="L178" s="8"/>
     </row>
     <row r="179" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
       <c r="L179" s="8"/>
     </row>
     <row r="180" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
       <c r="L180" s="8"/>
     </row>
     <row r="181" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
       <c r="L181" s="8"/>
     </row>
     <row r="182" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
       <c r="L182" s="8"/>
     </row>
     <row r="183" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
       <c r="L183" s="8"/>
     </row>
     <row r="184" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
       <c r="L184" s="8"/>
     </row>
     <row r="185" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
       <c r="L185" s="8"/>
     </row>
     <row r="186" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
       <c r="L186" s="8"/>
     </row>
     <row r="187" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="8"/>
     </row>
     <row r="188" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
       <c r="L188" s="8"/>
     </row>
     <row r="189" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
       <c r="L189" s="8"/>
     </row>
     <row r="190" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
       <c r="L190" s="8"/>
     </row>
     <row r="191" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
       <c r="L191" s="8"/>
     </row>
     <row r="192" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
       <c r="L192" s="8"/>
     </row>
     <row r="193" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
       <c r="L193" s="8"/>
     </row>
     <row r="194" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="12"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
       <c r="L194" s="8"/>
     </row>
     <row r="195" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
-      <c r="K195" s="12"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
       <c r="L195" s="8"/>
     </row>
     <row r="196" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="12"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
       <c r="L196" s="8"/>
     </row>
     <row r="197" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
       <c r="L197" s="8"/>
     </row>
     <row r="198" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="12"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="8"/>
     </row>
+    <row r="199" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="8"/>
+    </row>
+    <row r="200" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="8"/>
+    </row>
+    <row r="201" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I325">
-    <sortCondition descending="1" ref="B4:B325"/>
-    <sortCondition descending="1" ref="C4:C325"/>
-    <sortCondition descending="1" ref="D4:D325"/>
-    <sortCondition descending="1" ref="E4:E325"/>
-    <sortCondition descending="1" ref="F4:F325"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I328">
+    <sortCondition descending="1" ref="B9:B328"/>
+    <sortCondition descending="1" ref="C9:C328"/>
+    <sortCondition descending="1" ref="D9:D328"/>
+    <sortCondition descending="1" ref="E9:E328"/>
+    <sortCondition descending="1" ref="F9:F328"/>
   </sortState>
   <mergeCells count="14">
     <mergeCell ref="M1:M2"/>
@@ -4551,16 +4625,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A84:A105">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M105">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/level-1/codeforces/phase-1-2/codeforces-phase-1-2.xlsx
+++ b/level-1/codeforces/phase-1-2/codeforces-phase-1-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56450F71-1674-4097-BD4C-AFE8B3BF575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A38B8-4127-4E6F-9950-E1F089F06587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,35 +1060,35 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G9:G201)</f>
+        <f>AVERAGE(G4:G201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6" t="e">
-        <f>AVERAGE(H9:H201)</f>
+        <f>AVERAGE(H4:H201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="6" t="e">
-        <f>AVERAGE(I9:I201)</f>
+        <f>AVERAGE(I4:I201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="6" t="e">
-        <f>AVERAGE(J9:J201)</f>
+        <f>AVERAGE(J4:J201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="6" t="e">
-        <f>AVERAGE(K9:K201)</f>
+        <f>AVERAGE(K4:K201)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L9:L201)</f>
+        <f>AVERAGE(L4:L201)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>COUNTA(M9:M822)</f>
-        <v>118</v>
+        <f>COUNTA(M4:M822)</f>
+        <v>123</v>
       </c>
       <c r="N3" s="6">
-        <f>COUNTA(N9:N822)</f>
+        <f>COUNTA(N4:N822)</f>
         <v>0</v>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8">
-        <f>SUM(G4:K4)</f>
+        <f t="shared" ref="L4:L35" si="0">SUM(G4:K4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -1134,7 +1134,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="8">
-        <f>SUM(G5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -1159,7 +1159,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="8">
-        <f>SUM(G6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
@@ -1184,7 +1184,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="8">
-        <f>SUM(G7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
@@ -1209,7 +1209,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8">
-        <f>SUM(G8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -1234,7 +1234,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8">
-        <f>SUM(G9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -1259,7 +1259,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8">
-        <f>SUM(G10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="10" t="s">
@@ -1284,7 +1284,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
-        <f>SUM(G11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="10" t="s">
@@ -1309,7 +1309,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8">
-        <f>SUM(G12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
@@ -1334,7 +1334,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8">
-        <f>SUM(G13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1359,7 +1359,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8">
-        <f>SUM(G14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
@@ -1384,7 +1384,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8">
-        <f>SUM(G15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
@@ -1409,7 +1409,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8">
-        <f>SUM(G16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
@@ -1434,7 +1434,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8">
-        <f>SUM(G17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="10" t="s">
@@ -1459,7 +1459,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="8">
-        <f>SUM(G18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="10" t="s">
@@ -1484,7 +1484,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8">
-        <f>SUM(G19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="10" t="s">
@@ -1509,7 +1509,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8">
-        <f>SUM(G20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -1534,7 +1534,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8">
-        <f>SUM(G21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="10" t="s">
@@ -1559,7 +1559,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8">
-        <f>SUM(G22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="10" t="s">
@@ -1584,7 +1584,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8">
-        <f>SUM(G23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="10" t="s">
@@ -1609,7 +1609,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8">
-        <f>SUM(G24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="10" t="s">
@@ -1634,7 +1634,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8">
-        <f>SUM(G25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -1659,7 +1659,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="8">
-        <f>SUM(G26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
@@ -1684,7 +1684,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8">
-        <f>SUM(G27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="10" t="s">
@@ -1709,7 +1709,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8">
-        <f>SUM(G28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="10" t="s">
@@ -1734,7 +1734,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8">
-        <f>SUM(G29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="10" t="s">
@@ -1759,7 +1759,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="8">
-        <f>SUM(G30:K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="10" t="s">
@@ -1784,7 +1784,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="8">
-        <f>SUM(G31:K31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="10" t="s">
@@ -1809,7 +1809,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="8">
-        <f>SUM(G32:K32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="10" t="s">
@@ -1834,7 +1834,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8">
-        <f>SUM(G33:K33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="10" t="s">
@@ -1859,7 +1859,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="8">
-        <f>SUM(G34:K34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="10" t="s">
@@ -1884,7 +1884,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="8">
-        <f>SUM(G35:K35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -1909,7 +1909,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="8">
-        <f t="shared" ref="L36:L72" si="0">SUM(G36:K36)</f>
+        <f t="shared" ref="L36:L72" si="1">SUM(G36:K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="10" t="s">
@@ -1934,7 +1934,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M37" s="10" t="s">
@@ -1959,7 +1959,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M38" s="10" t="s">
@@ -1984,7 +1984,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M39" s="10" t="s">
@@ -2009,7 +2009,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M40" s="10" t="s">
@@ -2034,7 +2034,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M41" s="10" t="s">
@@ -2059,7 +2059,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M42" s="10" t="s">
@@ -2084,7 +2084,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M43" s="10" t="s">
@@ -2109,7 +2109,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M44" s="10" t="s">
@@ -2134,7 +2134,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M45" s="10" t="s">
@@ -2159,7 +2159,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M46" s="10" t="s">
@@ -2184,7 +2184,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M47" s="10" t="s">
@@ -2209,7 +2209,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M48" s="10" t="s">
@@ -2234,7 +2234,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M49" s="10" t="s">
@@ -2384,7 +2384,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M55" s="10" t="s">
@@ -2409,7 +2409,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M56" s="10" t="s">
@@ -2434,7 +2434,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M57" s="10" t="s">
@@ -2459,7 +2459,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M58" s="10" t="s">
@@ -2484,7 +2484,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M59" s="10" t="s">
@@ -2509,7 +2509,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M60" s="10" t="s">
@@ -2534,7 +2534,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M61" s="10" t="s">
@@ -2559,7 +2559,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M62" s="10" t="s">
@@ -2584,7 +2584,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M63" s="10" t="s">
@@ -2609,7 +2609,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M64" s="10" t="s">
@@ -2634,7 +2634,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M65" s="10" t="s">
@@ -2659,7 +2659,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M66" s="10" t="s">
@@ -2684,7 +2684,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M67" s="10" t="s">
@@ -2709,7 +2709,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M68" s="10" t="s">
@@ -2734,7 +2734,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M69" s="10" t="s">
@@ -2759,7 +2759,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M70" s="10" t="s">
@@ -2784,7 +2784,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M71" s="10" t="s">
@@ -2809,7 +2809,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M72" s="10" t="s">
@@ -2834,7 +2834,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="8">
-        <f>SUM(G73:K73)</f>
+        <f t="shared" ref="L73:L102" si="2">SUM(G73:K73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="10" t="s">
@@ -2859,7 +2859,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="8">
-        <f>SUM(G74:K74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M74" s="10" t="s">
@@ -2884,7 +2884,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="8">
-        <f>SUM(G75:K75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M75" s="10" t="s">
@@ -2909,7 +2909,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8">
-        <f>SUM(G76:K76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M76" s="10" t="s">
@@ -2934,7 +2934,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="8">
-        <f>SUM(G77:K77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M77" s="10" t="s">
@@ -2959,7 +2959,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="8">
-        <f>SUM(G78:K78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M78" s="10" t="s">
@@ -2984,7 +2984,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8">
-        <f>SUM(G79:K79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M79" s="10" t="s">
@@ -3009,7 +3009,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="8">
-        <f>SUM(G80:K80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M80" s="10" t="s">
@@ -3034,7 +3034,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="8">
-        <f>SUM(G81:K81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M81" s="10" t="s">
@@ -3059,7 +3059,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8">
-        <f>SUM(G82:K82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M82" s="10" t="s">
@@ -3084,7 +3084,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="8">
-        <f>SUM(G83:K83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M83" s="10" t="s">
@@ -3109,7 +3109,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="8">
-        <f>SUM(G84:K84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M84" s="10" t="s">
@@ -3134,7 +3134,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="8">
-        <f>SUM(G85:K85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M85" s="10" t="s">
@@ -3159,7 +3159,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="8">
-        <f>SUM(G86:K86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M86" s="10" t="s">
@@ -3184,7 +3184,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="8">
-        <f>SUM(G87:K87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M87" s="10" t="s">
@@ -3208,7 +3208,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="8">
-        <f>SUM(G88:K88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M88" s="10" t="s">
@@ -3232,7 +3232,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="8">
-        <f>SUM(G89:K89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M89" s="10" t="s">
@@ -3256,7 +3256,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="8">
-        <f>SUM(G90:K90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M90" s="10" t="s">
@@ -3280,7 +3280,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="8">
-        <f>SUM(G91:K91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M91" s="10" t="s">
@@ -3304,7 +3304,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="8">
-        <f>SUM(G92:K92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M92" s="10" t="s">
@@ -3328,7 +3328,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="8">
-        <f>SUM(G93:K93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M93" s="10" t="s">
@@ -3352,7 +3352,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="8">
-        <f>SUM(G94:K94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M94" s="10" t="s">
@@ -3376,7 +3376,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="8">
-        <f>SUM(G95:K95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M95" s="10" t="s">
@@ -3400,7 +3400,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="8">
-        <f>SUM(G96:K96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M96" s="10" t="s">
@@ -3424,7 +3424,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="8">
-        <f>SUM(G97:K97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M97" s="10" t="s">
@@ -3448,7 +3448,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="8">
-        <f>SUM(G98:K98)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M98" s="10" t="s">
@@ -3472,7 +3472,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="8">
-        <f>SUM(G99:K99)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M99" s="10" t="s">
@@ -3496,7 +3496,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="8">
-        <f>SUM(G100:K100)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M100" s="10" t="s">
@@ -3520,7 +3520,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="8">
-        <f>SUM(G101:K101)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M101" s="10" t="s">
@@ -3544,7 +3544,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="8">
-        <f>SUM(G102:K102)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M102" s="10" t="s">
@@ -3568,7 +3568,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="8">
-        <f t="shared" ref="L103:L134" si="1">SUM(G103:K103)</f>
+        <f t="shared" ref="L103:L126" si="3">SUM(G103:K103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="10" t="s">
@@ -3592,7 +3592,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M104" s="10" t="s">
@@ -3616,7 +3616,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M105" s="10" t="s">
@@ -3640,7 +3640,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M106" s="10" t="s">
@@ -3664,7 +3664,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M107" s="10" t="s">
@@ -3688,7 +3688,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M108" s="10" t="s">
@@ -3712,7 +3712,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M109" s="10" t="s">
@@ -3737,7 +3737,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M110" s="10" t="s">
@@ -3762,7 +3762,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M111" s="10" t="s">
@@ -3787,7 +3787,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M112" s="10" t="s">
@@ -3812,7 +3812,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M113" s="10" t="s">
@@ -3837,7 +3837,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M114" s="10" t="s">
@@ -3862,7 +3862,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M115" s="10" t="s">
@@ -3887,7 +3887,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M116" s="10" t="s">
@@ -3912,7 +3912,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M117" s="10" t="s">
@@ -3937,7 +3937,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M118" s="10" t="s">
@@ -3962,7 +3962,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M119" s="10" t="s">
@@ -3987,7 +3987,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M120" s="10" t="s">
@@ -4012,7 +4012,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M121" s="10" t="s">
@@ -4037,7 +4037,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M122" s="10" t="s">
@@ -4062,7 +4062,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M123" s="10" t="s">
@@ -4087,7 +4087,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M124" s="10" t="s">
@@ -4112,7 +4112,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M125" s="10" t="s">
@@ -4137,7 +4137,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M126" s="10" t="s">
